--- a/biology/Médecine/Tacuinum_sanitatis/Tacuinum_sanitatis.xlsx
+++ b/biology/Médecine/Tacuinum_sanitatis/Tacuinum_sanitatis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Tacuinum sanitatis (également appelé Taccuinum sanitatis) est un manuel médiéval sur la santé, basé sur le Taqwīm al-Ṣiḥḥa تقويم الصحة (Tableaux de santé), un traité médical arabe écrit par Ibn Butlân vers 1050.
@@ -516,17 +528,60 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Manuscrit arabe original
-Le texte original arabe Taqwim al-Sihha d'Ibn Butlan est connu à travers 16 exemplaires répertoriés dans les bibliothèques d'Orient et d'Occident.
+          <t>Manuscrit arabe original</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le texte original arabe Taqwim al-Sihha d'Ibn Butlan est connu à travers 16 exemplaires répertoriés dans les bibliothèques d'Orient et d'Occident.
 Les prescriptions du livre s'inspirent largement de la théorie des humeurs d'Hippocrate, elle-même basée sur la théorie des quatre éléments, reprise par Galien et la tradition médicale gréco-romaine pour passer ensuite dans la culture arabe.
-Les aliments, mais aussi les phénomènes atmosphériques, les saisons et tous les facteurs d'environnement en général sont classés en différentes catégories selon les qualités des éléments qui les composent sur deux axes — chaud et froid, sec et humide — et sur une échelle comprenant quatre degrés[1]. Dans la conception hippocratique, en effet : 
-« la vie biologique de l'homme consiste en un changement continuel de nature depuis la naissance jusqu'à la mort, en fonction du mélange des qualités primaires et de la sympathie ou connexion des différentes parties du corps. L'harmonie de ces éléments dépend de la combinaison d'un agent interne — la chaleur innée, dont le siège principal se trouve dans le ventricule gauche du cœur — et de deux agents externes: les aliments et le pneuma ou l'air qui pénètre dans le corps[2]. »
-Galien s'est appuyé sur l'œuvre de Dioscoride pour développer divers traités sur les vertus curatives de plantes et les médicaments qui en sont tirés. Il est l'auteur d'une théorie de l'action curative basée sur l'intensité des qualités primaires de chaque remède, mesurée sur une échelle de quatre degrés[3].
-À la suite de l'expansion islamique des VIIIe et XIXe siècle, la science grecque et son savoir médical ont été traduits du grec à l'arabe dans la maison de la sagesse de Bagdad par le médecin Hunayn ibn Ishaq, qui a implanté le système de Galien dans la culture islamique. Par la suite, divers auteurs — notamment Ali Abbas, Rhazès et Avicenne — ont développé et enrichi le corpus grec et en ont proposé « une synthèse d'une grande rigueur logique[4]. »
-Vers 1050, Ibn Butlan, médecin irakien de confession nestorienne, est le premier à proposer dans son Taqwim al-Sihha (Tables de santé) un exposé synthétique sous forme de tableaux des principes de diététique et d'hygiène. L'ouvrage, qui remporte un grand succès, est traduit en latin au cours du XIIIe siècle pour le roi de Sicile, Manfred Ier de Sicile (1232 -1266) ou son successeur Charles Ier d'Anjou[5]. Le terme Taqwin, devenu populaire dans la langue arabe pour désigner une synthèse pratique et fiable.
-Manuscrits non illustrés
-Contenu
-La première traduction en latin du manuscrit arabe est effectuée vers 1250 à la demande de la cour de Sicile, puis copiée avec des variantes mineures dans les décennies suivantes.
+Les aliments, mais aussi les phénomènes atmosphériques, les saisons et tous les facteurs d'environnement en général sont classés en différentes catégories selon les qualités des éléments qui les composent sur deux axes — chaud et froid, sec et humide — et sur une échelle comprenant quatre degrés. Dans la conception hippocratique, en effet : 
+« la vie biologique de l'homme consiste en un changement continuel de nature depuis la naissance jusqu'à la mort, en fonction du mélange des qualités primaires et de la sympathie ou connexion des différentes parties du corps. L'harmonie de ces éléments dépend de la combinaison d'un agent interne — la chaleur innée, dont le siège principal se trouve dans le ventricule gauche du cœur — et de deux agents externes: les aliments et le pneuma ou l'air qui pénètre dans le corps. »
+Galien s'est appuyé sur l'œuvre de Dioscoride pour développer divers traités sur les vertus curatives de plantes et les médicaments qui en sont tirés. Il est l'auteur d'une théorie de l'action curative basée sur l'intensité des qualités primaires de chaque remède, mesurée sur une échelle de quatre degrés.
+À la suite de l'expansion islamique des VIIIe et XIXe siècle, la science grecque et son savoir médical ont été traduits du grec à l'arabe dans la maison de la sagesse de Bagdad par le médecin Hunayn ibn Ishaq, qui a implanté le système de Galien dans la culture islamique. Par la suite, divers auteurs — notamment Ali Abbas, Rhazès et Avicenne — ont développé et enrichi le corpus grec et en ont proposé « une synthèse d'une grande rigueur logique. »
+Vers 1050, Ibn Butlan, médecin irakien de confession nestorienne, est le premier à proposer dans son Taqwim al-Sihha (Tables de santé) un exposé synthétique sous forme de tableaux des principes de diététique et d'hygiène. L'ouvrage, qui remporte un grand succès, est traduit en latin au cours du XIIIe siècle pour le roi de Sicile, Manfred Ier de Sicile (1232 -1266) ou son successeur Charles Ier d'Anjou. Le terme Taqwin, devenu populaire dans la langue arabe pour désigner une synthèse pratique et fiable.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Tacuinum_sanitatis</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tacuinum_sanitatis</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Contenu</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Manuscrits non illustrés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Contenu</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La première traduction en latin du manuscrit arabe est effectuée vers 1250 à la demande de la cour de Sicile, puis copiée avec des variantes mineures dans les décennies suivantes.
 Les contenus sont articulés autour de tables regroupant des informations de santé sur un grand nombre d'aliments, de comportements, de régions, etc.
 Avec de menues variantes selon les exemplaires, toutes les tables de l'ouvrage sont formées sur une structure commune. Chaque élément examiné constitue une ligne. En colonnes sont décrites les caractéristiques suivantes :
 Numerus numéro d’ordre du produit traité ;
@@ -545,12 +600,85 @@
 Comme dans l'original arabe, les éléments sont généralement regroupés par tables de sept lignes. Une quarantaine de tables parsèment l'ouvrage, entrecoupés de textes théoriques. Dans ces premières traductions, la mise en forme des tables reste également très similaire : les colonnes 5 à 8 sont mises en valeur (élargies), alors que les premières et dernières colonnes sont très compactes et abrégées.
 			Original arabe, c. 1050
 			Tacuinum BnF Lat.6977, 1250-1300
-Exemplaires connus
-Il existerait plusieurs dizaines de manuscrits de cette première série dans les bibliothèques d'Europe[6]. On peut citer les suivants :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Tacuinum_sanitatis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tacuinum_sanitatis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Contenu</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Manuscrits non illustrés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Exemplaires connus</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Il existerait plusieurs dizaines de manuscrits de cette première série dans les bibliothèques d'Europe. On peut citer les suivants :
 le manuscrit Latin 6977 Tacuinum Sanitatis sur Gallica, Bibliothèque nationale de France (BnF), Paris, par Ibn Butlân, entre 1250 et 1300, 66 feuillets, 41 tables, non illustré ;
-le manuscrit ms 1501, Biblioteca Angelica, Rome.
-Manuscrits illustrés
-Les versions illustrées du Tacuinum apparaissent dans le Nord de l'Italie à partir de 1380.
+le manuscrit ms 1501, Biblioteca Angelica, Rome.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tacuinum_sanitatis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tacuinum_sanitatis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Contenu</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Manuscrits illustrés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les versions illustrées du Tacuinum apparaissent dans le Nord de l'Italie à partir de 1380.
 La structure des ouvrages change considérablement : la quantité de texte est fortement réduite, et chaque élément est traité sur une page séparée, une illustration occupant la plus grande part de chaque notice. Les tables disparaissent donc, et chaque article contient un court résumé des indications d'origine présenté comme une légende de l'image. En dehors du titre de l'élément, les caractéristiques mentionnées se réduisent généralement à cinq items.
 Nature nature (et degré) ;
 Melius ex eo la meilleure variété ;
@@ -579,8 +707,47 @@
 			BnF Paris, Lat. 9333
 L'exemplaire BnF 9333 est le seul à comporter sur chaque notice une traduction en allemand, ajoutée ultérieurement au texte initial. Du point de vue des illustrations, les exemplaires de Vienne, de Rome et de Paris Lat.9333 se ressemblent énormément. L'original est probablement l'exemplaire de Vienne.
 L'exemplaire Liège ms. 1041 a probablement l'exécution artistique la plus fine des dessins, mais la mise en couleurs est incomplète sur la grande majorité des notices du manuscrit, et parfois complètement absente.
-Thèmes couverts
-Dans les exemplaires illustrés du Tacuinum, les notices s'enchaînent sans séparation formelle. On peut toutefois constater un regroupement des notices en thèmes, variant légèrement selon l'exemplaire consulté. Les deux grandes catégories de notices sont les aliments (bruts ou préparés) d'une part, et les autres facteurs environnementaux "hygiéniques" d'autre part, pour lesquels la théorie des humeurs et des degrés semblait s'appliquer également.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Tacuinum_sanitatis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tacuinum_sanitatis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Contenu</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Manuscrits illustrés</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Thèmes couverts</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Dans les exemplaires illustrés du Tacuinum, les notices s'enchaînent sans séparation formelle. On peut toutefois constater un regroupement des notices en thèmes, variant légèrement selon l'exemplaire consulté. Les deux grandes catégories de notices sont les aliments (bruts ou préparés) d'une part, et les autres facteurs environnementaux "hygiéniques" d'autre part, pour lesquels la théorie des humeurs et des degrés semblait s'appliquer également.
 Aliments
 Fruits : figues, raisins, pêches, prunes, grenades, coings, mûres, nèfles, cédrats, dattes, bananes...
 Herbes : basilic, moutarde, coriandre, absinthe, menthe, mandragore, safran, réglisse...
@@ -600,34 +767,272 @@
 Eau : eau de fontaine, eau de pluie, neige et glace, bain, eau salée...
 Habitation : pièces d'hiver, pièces d'été, pièces et leur air
 Météo : vent du sud, vent du nord, vent d'ouest, vent d'est, printemps, été, automne, hiver
-Régions : région nord, région sud, région est, région ouest
-Saisons
+Régions : région nord, région sud, région est, région ouest</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tacuinum_sanitatis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tacuinum_sanitatis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Contenu</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Manuscrits illustrés</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Saisons</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Printemps: Chaud et humide
 			Eté: Chaud et sec
 			Automne: Froid et sec
 			Hiver: Froid et humide
-Aliments chauds et secs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tacuinum_sanitatis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tacuinum_sanitatis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Contenu</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Manuscrits illustrés</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Aliments chauds et secs</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Aneth : Chaud et sec
 			Betterave : Chaud et sec
 			Chou : Chaud et sec
 			Fenouil : Chaud et sec
-Aliments froids et humides
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Tacuinum_sanitatis</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tacuinum_sanitatis</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Contenu</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Manuscrits illustrés</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Aliments froids et humides</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Cerise : Froid et humide
 			Orange : Froid et humide
 			Pastèque : Froid et humide
 			Courge : Froid et humide
-Aliments froids et secs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Tacuinum_sanitatis</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tacuinum_sanitatis</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Contenu</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Manuscrits illustrés</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Aliments froids et secs</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Gland : Froid et sec
 			Mandragore : Froid et sec
 			Millet : Froid et sec
 			Orge : Froid et sec
-Aliments chauds et humides
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Tacuinum_sanitatis</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tacuinum_sanitatis</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Contenu</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Manuscrits illustrés</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Aliments chauds et humides</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Blé : Chaud et humide
 			Huile d’Olive : Chaud et humide
 			Asperge : Chaud et humide
 			Pâtes : Chaud et humide
-Exemplaires connus
-Les six exemplaires illustrés du Tacuinum sanitatis[7],[8] conservés dans des institutions publiques sont souvent désignés par leur localisation :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Tacuinum_sanitatis</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tacuinum_sanitatis</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Contenu</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Manuscrits illustrés</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Exemplaires connus</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Les six exemplaires illustrés du Tacuinum sanitatis, conservés dans des institutions publiques sont souvent désignés par leur localisation :
 le manuscrit Nouvelle Acquisition Latine 1673, BnF, Paris, exécuté à Pavie ou Milan, 1380-1390 (103 feuillets illustrés dont les premiers sont endommagés, 205 illustrations), consultable en ligne sur la base Mandragore ;
 le Tacuinum de Liège,  Bibliothèque Universitaire, ms 1041, 1380-1400 (86 feuillets, 170 illustrations attribuées à Giovannino de' Grassi) ;
 le Tacuinum de Vienne dit de Cerutti, codex vindobonensis series nova 2644, Österreischiche Nationalbibliothek, Vienne, 1390-1400 (109 feuillets, 218 illustrations) ;
@@ -641,38 +1046,113 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Tacuinum_sanitatis</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Tacuinum_sanitatis</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Tacuinum_sanitatis</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tacuinum_sanitatis</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Reproductions contemporaines</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'art de vivre en santé (Liège Ms 1041)
-L'exemplaire de Liège est reproduit dans L'art de vivre en santé[9], accompagné de notes détaillées sur chaque feuillet et d'une introduction historique par Carmélia Opsomer, directrice du Département des manuscrits de l'Université de Liège[6].
-Édition du Vindobonensis series nova 2644 de la Bibliothèque nationale d'Autriche
-L'exemplaire de Vienne est reproduit dans L'art de vivre au Moyen âge[10], présentation de Daniel Poirion et Claude Thomasset.
-Fac-similé du manuscrit Latin 9333 de la BnF
-En 2008, la maison d’édition espagnole M. Moleiro Editor a publié un fac-similé du Tacuinum sanitatis Ms. Latin 9333 conservé à la Bibliothèque nationale de France[11], dans une édition limitée à 987 exemplaires[12]. Cette édition de luxe reproduit les caractéristiques physiques de l'ouvrage tant au plan de la texture et épaisseur du papier que de la reliure et des fermoirs. Cette édition s'accompagne d'un volume de commentaires par Alain Touwaide (Smithsonian Institution), Eberhard König (Université libre de Berlin) et Carlos Miranda García-Tejedor.
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>L'art de vivre en santé (Liège Ms 1041)</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'exemplaire de Liège est reproduit dans L'art de vivre en santé, accompagné de notes détaillées sur chaque feuillet et d'une introduction historique par Carmélia Opsomer, directrice du Département des manuscrits de l'Université de Liège.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Tacuinum_sanitatis</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tacuinum_sanitatis</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Reproductions contemporaines</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Édition du Vindobonensis series nova 2644 de la Bibliothèque nationale d'Autriche</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'exemplaire de Vienne est reproduit dans L'art de vivre au Moyen âge, présentation de Daniel Poirion et Claude Thomasset.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Tacuinum_sanitatis</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tacuinum_sanitatis</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Reproductions contemporaines</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Fac-similé du manuscrit Latin 9333 de la BnF</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2008, la maison d’édition espagnole M. Moleiro Editor a publié un fac-similé du Tacuinum sanitatis Ms. Latin 9333 conservé à la Bibliothèque nationale de France, dans une édition limitée à 987 exemplaires. Cette édition de luxe reproduit les caractéristiques physiques de l'ouvrage tant au plan de la texture et épaisseur du papier que de la reliure et des fermoirs. Cette édition s'accompagne d'un volume de commentaires par Alain Touwaide (Smithsonian Institution), Eberhard König (Université libre de Berlin) et Carlos Miranda García-Tejedor.
 </t>
         </is>
       </c>
